--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6:$E$9</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6:$E$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -22,7 +22,7 @@
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 0300 для CDC от 17.10.2023</t>
+    <t>КП № 0322 для Сизов от 17.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -46,37 +46,39 @@
     <t>Работы</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер)
+    <t>Detail 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Квадрат)
+Сварка
 </t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Квадрат)
+    <t>Detail 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Труба прямоугольная 40х40х4)
+Окраска
 </t>
+  </si>
+  <si>
+    <t>Detail 3</t>
   </si>
   <si>
     <t xml:space="preserve">Покупка (Лист алюминиевый 3х1200х3000)
 </t>
   </si>
   <si>
-    <t>Доставка</t>
-  </si>
-  <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>76500 за 10 изделий</t>
+    <t>7450 за 1 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>2 раб/дней.</t>
+    <t>9 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -88,7 +90,7 @@
     <t>Порядок отгрузки:</t>
   </si>
   <si>
-    <t>Доставка силами Исполнителя по адресу Заказчика.</t>
+    <t>Самовывоз со склада Исполнителя по адресу: Ленинградская область, Всеволожский район, Колтушское сельское поселение, деревня Мяглово, ул. Дорожная, уч. 4Б.</t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
@@ -324,9 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -707,7 +709,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -784,13 +786,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="10">
-        <v>2250</v>
+        <v>2550</v>
       </c>
       <c r="E6" s="10">
-        <v>2250</v>
+        <v>5100</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>10</v>
@@ -804,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10">
-        <v>2700</v>
+        <v>1290</v>
       </c>
       <c r="E7" s="10">
-        <v>5400</v>
+        <v>1290</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>12</v>
@@ -820,119 +822,105 @@
       <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="e">
-        <v>#NUM!</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>530</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1700</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1700</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E9" s="14">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" ht="68.5" customHeight="true">
+      <c r="A13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -942,8 +930,9 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 0322 для Сизов от 17.10.2023</t>
+    <t>КП № 0200 для Петропрофиль от 18.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -46,7 +46,7 @@
     <t>Работы</t>
   </si>
   <si>
-    <t>Detail 1</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Покупка (Квадрат)
@@ -54,31 +54,27 @@
 </t>
   </si>
   <si>
-    <t>Detail 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Труба прямоугольная 40х40х4)
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Швеллер)
 Окраска
 </t>
   </si>
   <si>
-    <t>Detail 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Лист алюминиевый 3х1200х3000)
-</t>
+    <t>Доставка</t>
   </si>
   <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>7450 за 1 изделий</t>
+    <t>5620 за 1 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>9 раб/дней.</t>
+    <t>12 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -90,13 +86,13 @@
     <t>Порядок отгрузки:</t>
   </si>
   <si>
-    <t>Самовывоз со склада Исполнителя по адресу: Ленинградская область, Всеволожский район, Колтушское сельское поселение, деревня Мяглово, ул. Дорожная, уч. 4Б.</t>
+    <t>Доставка силами Исполнителя по адресу Заказчика.</t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t/>
+    <t>Сергеев Алексей</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -326,6 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -720,7 +716,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.00390625" customWidth="1"/>
     <col min="5" max="5" width="10.57421875" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.00390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -786,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="10">
-        <v>2550</v>
+        <v>3640</v>
       </c>
       <c r="E6" s="10">
-        <v>5100</v>
+        <v>3640</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>10</v>
@@ -806,121 +802,117 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="10">
-        <v>1290</v>
+        <v>990</v>
       </c>
       <c r="E7" s="10">
-        <v>1290</v>
+        <v>1980</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>530</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="10">
-        <v>1060</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" ht="68.5" customHeight="true">
-      <c r="A13" s="16" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -930,7 +922,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:F12"/>
   </mergeCells>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6:$E$8</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 0200 для Петропрофиль от 18.10.2023</t>
+    <t>КП №  для  от 19.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -49,32 +49,22 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка (Квадрат)
+    <t xml:space="preserve">Покупка (Швеллер)
 Сварка
-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер)
 Окраска
 </t>
   </si>
   <si>
-    <t>Доставка</t>
-  </si>
-  <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>5620 за 1 изделий</t>
+    <t>9739,95 за 1 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>12 раб/дней.</t>
+    <t xml:space="preserve"> раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -86,7 +76,7 @@
     <t>Порядок отгрузки:</t>
   </si>
   <si>
-    <t>Доставка силами Исполнителя по адресу Заказчика.</t>
+    <t>Самовывоз со склада Исполнителя по адресу: Ленинградская область, Всеволожский район, Колтушское сельское поселение, деревня Мяглово, ул. Дорожная, уч. 4Б.</t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
@@ -102,6 +92,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00.00"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -287,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -301,6 +294,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -310,6 +306,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -319,19 +318,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
@@ -342,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -705,7 +707,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -756,163 +758,127 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3640</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3640</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3246.650146484375</v>
+      </c>
+      <c r="E6" s="13">
+        <v>9739.9501953125</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>990</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1980</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5000</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="E7" s="17">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" ht="68.5" customHeight="true">
+      <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -922,8 +888,9 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -22,7 +22,7 @@
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП №  для  от 19.10.2023</t>
+    <t>КП №  для  от 20.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -50,15 +50,13 @@
   </si>
   <si>
     <t xml:space="preserve">Покупка (Швеллер)
-Сварка
-Окраска
 </t>
   </si>
   <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>9739,95 за 1 изделий</t>
+    <t>0 за 0 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -372,7 +370,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="400050" cy="400050"/>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -395,7 +393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="400050" cy="400050"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="13">
-        <v>3246.650146484375</v>
+        <v>4904.64013671875</v>
       </c>
       <c r="E6" s="13">
-        <v>9739.9501953125</v>
+        <v>53951.0390625</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>10</v>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6:$E$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП №  для  от 20.10.2023</t>
+    <t>КП №  для  от 22.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -47,6 +47,16 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Швеллер)
+Сварка
+Покупка (Швеллер)
+Окраска
+</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Покупка (Швеллер)
@@ -56,7 +66,7 @@
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>0 за 0 изделий</t>
+    <t>12169,098 за 1 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -80,7 +90,7 @@
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Сергеев Алексей</t>
+    <t>Серых Михаил</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -370,7 +380,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
+    <xdr:ext cx="447675" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -393,7 +403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="571500" cy="571500"/>
+          <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,7 +715,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -714,7 +724,7 @@
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.00390625" customWidth="1"/>
+    <col min="4" max="4" width="9.8515625" customWidth="1"/>
     <col min="5" max="5" width="10.57421875" customWidth="1"/>
     <col min="6" max="6" width="19.00390625" customWidth="1"/>
   </cols>
@@ -782,51 +792,59 @@
         <v>9</v>
       </c>
       <c r="C6" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" s="13">
-        <v>4904.64013671875</v>
+        <v>4575.4287109375</v>
       </c>
       <c r="E6" s="13">
-        <v>53951.0390625</v>
+        <v>9150.857421875</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17">
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3018.239990234375</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3018.239990234375</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="19"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10">
@@ -834,46 +852,58 @@
         <v>15</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" ht="68.5" customHeight="true">
+    <row r="11">
       <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" ht="68.5" customHeight="true">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -886,9 +916,9 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6:$E$7</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП №  для  от 22.10.2023</t>
+    <t>КП №  для  от 23.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -46,27 +46,15 @@
     <t>Работы</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер)
-Сварка
-Покупка (Швеллер)
+    <t xml:space="preserve">Покупка (Квадрат)
 Окраска
 </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер)
-</t>
-  </si>
-  <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>12169,098 за 1 изделий</t>
+    <t>9024 за 1 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -90,7 +78,7 @@
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Серых Михаил</t>
+    <t>Сергеев Алексей</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -380,7 +368,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="447675"/>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -403,7 +391,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="447675" cy="447675"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,7 +703,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -724,9 +712,9 @@
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.8515625" customWidth="1"/>
+    <col min="4" max="4" width="10.00390625" customWidth="1"/>
     <col min="5" max="5" width="10.57421875" customWidth="1"/>
-    <col min="6" max="6" width="19.00390625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -788,122 +776,100 @@
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>9024</v>
+      </c>
+      <c r="E6" s="13">
+        <v>9024</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>4575.4287109375</v>
-      </c>
-      <c r="E6" s="13">
-        <v>9150.857421875</v>
-      </c>
-      <c r="F6" s="14" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
-        <v>3018.239990234375</v>
-      </c>
-      <c r="E7" s="13">
-        <v>3018.239990234375</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="E7" s="17">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="F7" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="19"/>
+      <c r="A9" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" ht="68.5" customHeight="true">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="68.5" customHeight="true">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -916,9 +882,9 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
@@ -46,15 +46,23 @@
     <t>Работы</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка (Квадрат)
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Швеллер)
 Окраска
+Сварка
+Покупка (Квадрат)
+Окраска
+Покупка (Квадрат)
+Покупка (Квадрат)
 </t>
   </si>
   <si>
     <t>ИТОГО:</t>
   </si>
   <si>
-    <t>9024 за 1 изделий</t>
+    <t>26481,58 за 1 изделий</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -78,7 +86,7 @@
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Сергеев Алексей</t>
+    <t>Серых Михаил</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -368,7 +376,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
+    <xdr:ext cx="447675" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -391,7 +399,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="571500" cy="571500"/>
+          <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,9 +720,9 @@
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.00390625" customWidth="1"/>
+    <col min="4" max="4" width="9.8515625" customWidth="1"/>
     <col min="5" max="5" width="10.57421875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.00390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -776,18 +784,20 @@
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="13">
-        <v>9024</v>
+        <v>13240.7900390625</v>
       </c>
       <c r="E6" s="13">
-        <v>9024</v>
+        <v>26481.580078125</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -795,14 +805,14 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="17">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -815,11 +825,11 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -827,11 +837,11 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -839,11 +849,11 @@
     </row>
     <row r="11" ht="68.5" customHeight="true">
       <c r="A11" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -851,16 +861,16 @@
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,24 +10,33 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$E$6</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$E$8:$E$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП №  для  от 23.10.2023</t>
+    <t>КП №  для  от 24.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
   </si>
   <si>
+    <t>Для изготовления изделия</t>
+  </si>
+  <si>
+    <t>Остановка общего пользования</t>
+  </si>
+  <si>
+    <t>понадобятся следующие детали и работы:</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -50,25 +59,26 @@
   </si>
   <si>
     <t xml:space="preserve">Покупка (Швеллер)
-Окраска
-Сварка
-Покупка (Квадрат)
-Окраска
-Покупка (Квадрат)
-Покупка (Квадрат)
+Окраска (цвет - 9016 мат)
 </t>
   </si>
   <si>
-    <t>ИТОГО:</t>
-  </si>
-  <si>
-    <t>26481,58 за 1 изделий</t>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Стоимость изделия:</t>
+  </si>
+  <si>
+    <t>Всего за 5 шт:</t>
+  </si>
+  <si>
+    <t>41481</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t xml:space="preserve"> раб/дней.</t>
+    <t>10-14 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -80,13 +90,13 @@
     <t>Порядок отгрузки:</t>
   </si>
   <si>
-    <t>Самовывоз со склада Исполнителя по адресу: Ленинградская область, Всеволожский район, Колтушское сельское поселение, деревня Мяглово, ул. Дорожная, уч. 4Б.</t>
+    <t>Доставка силами Исполнителя по адресу Заказчика.</t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Серых Михаил</t>
+    <t>Сергеев Алексей</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -99,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -118,6 +128,12 @@
       <b/>
       <color theme="3"/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="0.5"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,7 +300,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -292,6 +308,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -328,13 +346,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
@@ -343,11 +367,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -376,7 +403,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="447675"/>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -399,7 +426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="447675" cy="447675"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,7 +738,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -720,9 +747,9 @@
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.8515625" customWidth="1"/>
+    <col min="4" max="4" width="10.00390625" customWidth="1"/>
     <col min="5" max="5" width="10.57421875" customWidth="1"/>
-    <col min="6" max="6" width="19.00390625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -743,158 +770,194 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4"/>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11">
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>13240.7900390625</v>
-      </c>
-      <c r="E6" s="13">
-        <v>26481.580078125</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7796.2001953125</v>
+      </c>
+      <c r="E8" s="15">
+        <v>7796.2001953125</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="21">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" ht="68.5" customHeight="true">
-      <c r="A11" s="19" t="s">
+      <c r="E11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="21" t="s">
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="22" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -58,7 +58,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка (Швеллер)
+    <t xml:space="preserve">Покупка (Квадрат)
 Окраска (цвет - 9016 мат)
 </t>
   </si>
@@ -69,10 +69,10 @@
     <t>Стоимость изделия:</t>
   </si>
   <si>
-    <t>Всего за 5 шт:</t>
-  </si>
-  <si>
-    <t>41481</t>
+    <t>Всего за 2 шт:</t>
+  </si>
+  <si>
+    <t>90880</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -128,12 +128,6 @@
       <b/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="0.5"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,7 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -309,7 +303,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -355,10 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
@@ -367,13 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
@@ -403,7 +396,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
+    <xdr:ext cx="447675" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -426,7 +419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="571500" cy="571500"/>
+          <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,21 +763,21 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -797,151 +790,151 @@
       <c r="E5"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
+        <v>14730</v>
+      </c>
+      <c r="E8" s="14">
+        <v>44190</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
-        <v>7796.2001953125</v>
-      </c>
-      <c r="E8" s="15">
-        <v>7796.2001953125</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>2500</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>2500</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="27" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$E$8:$E$9</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП №  для  от 24.10.2023</t>
+    <t>КП № 001 для Петропрофиль от 25.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -31,7 +31,7 @@
     <t>Для изготовления изделия</t>
   </si>
   <si>
-    <t>Остановка общего пользования</t>
+    <t>Каркас здания</t>
   </si>
   <si>
     <t>понадобятся следующие детали и работы:</t>
@@ -43,6 +43,9 @@
     <t>Наименование</t>
   </si>
   <si>
+    <t>Работы</t>
+  </si>
+  <si>
     <t>Кол-во, шт</t>
   </si>
   <si>
@@ -52,33 +55,41 @@
     <t>Стоимость</t>
   </si>
   <si>
-    <t>Работы</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Квадрат)
+    <t>Основание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Швеллер)
+Сварка
+Окраска (цвет - 9016 мат)
+Покупка (Квадрат)
 Окраска (цвет - 9016 мат)
 </t>
   </si>
   <si>
+    <t>Боковина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Швеллер)
+Окраска (цвет - 9016 мат)
+</t>
+  </si>
+  <si>
     <t>Доставка</t>
   </si>
   <si>
     <t>Стоимость изделия:</t>
   </si>
   <si>
-    <t>Всего за 2 шт:</t>
-  </si>
-  <si>
-    <t>90880</t>
+    <t>Всего за 1 шт:</t>
+  </si>
+  <si>
+    <t>38875,52</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>10-14 раб/дней.</t>
+    <t>20 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -151,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -257,9 +268,16 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -294,7 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -312,7 +330,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -324,7 +342,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
@@ -333,28 +351,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
@@ -396,7 +411,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="447675"/>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -419,7 +434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="447675" cy="447675"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,7 +746,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -739,10 +754,10 @@
   <cols>
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.00390625" customWidth="1"/>
-    <col min="5" max="5" width="10.57421875" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.00390625" customWidth="1"/>
+    <col min="6" max="6" width="10.57421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -799,7 +814,7 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -813,7 +828,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
@@ -824,120 +839,140 @@
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14">
-        <v>14730</v>
-      </c>
-      <c r="E8" s="14">
-        <v>44190</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>18542</v>
+      </c>
+      <c r="F8" s="16">
+        <v>18542</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8916.759765625</v>
+      </c>
+      <c r="F9" s="16">
+        <v>17833.51953125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E10" s="15">
         <v>2500</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F10" s="16">
         <v>2500</v>
       </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="20">
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="22"/>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -949,8 +984,9 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$10</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 001 для Петропрофиль от 25.10.2023</t>
+    <t>КП № 002 для Петропрофиль от 26.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -58,38 +58,36 @@
     <t>Основание</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка (Швеллер)
+    <t xml:space="preserve">Покупка (Лист металла)
+Окраска (цвет - 9005 мат)
+Покупка (Швеллер)
+Окраска (цвет - 9005 мат)
+</t>
+  </si>
+  <si>
+    <t>Боковина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Квадрат)
+Окраска (цвет - 9005 мат)
+Покупка (Лист металла)
 Сварка
-Окраска (цвет - 9016 мат)
-Покупка (Квадрат)
-Окраска (цвет - 9016 мат)
 </t>
   </si>
   <si>
-    <t>Боковина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер)
-Окраска (цвет - 9016 мат)
-</t>
-  </si>
-  <si>
-    <t>Доставка</t>
-  </si>
-  <si>
     <t>Стоимость изделия:</t>
   </si>
   <si>
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>38875,52</t>
+    <t>63330,8</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>20 раб/дней.</t>
+    <t>17 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -101,13 +99,13 @@
     <t>Порядок отгрузки:</t>
   </si>
   <si>
-    <t>Доставка силами Исполнителя по адресу Заказчика.</t>
+    <t>Самовывоз со склада Исполнителя по адресу: Ленинградская область, Всеволожский район, Колтушское сельское поселение, деревня Мяглово, ул. Дорожная, уч. 4Б.</t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Сергеев Алексей</t>
+    <t>Серых Михаил</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -312,7 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -375,14 +373,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -746,7 +747,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -846,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>18542</v>
+        <v>32129</v>
       </c>
       <c r="F8" s="16">
-        <v>18542</v>
+        <v>32129</v>
       </c>
     </row>
     <row r="9">
@@ -866,113 +867,97 @@
         <v>2</v>
       </c>
       <c r="E9" s="15">
-        <v>8916.759765625</v>
+        <v>15600.900390625</v>
       </c>
       <c r="F9" s="16">
-        <v>17833.51953125</v>
+        <v>31201.80078125</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2500</v>
-      </c>
-      <c r="F10" s="16">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="C12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14">
+    <row r="14" ht="68.5" customHeight="true">
       <c r="A14" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>25</v>
+      <c r="C15" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="21"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="F16" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -984,9 +969,10 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -22,7 +22,7 @@
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 002 для Петропрофиль от 26.10.2023</t>
+    <t>КП № 002 для Петропрофиль от 27.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Покупка (Квадрат)
 Окраска (цвет - 9005 мат)
 Покупка (Лист металла)
-Сварка
+Резка
 </t>
   </si>
   <si>
@@ -81,7 +81,7 @@
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>63330,8</t>
+    <t>61010,27</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>32129</v>
+        <v>32153.26953125</v>
       </c>
       <c r="F8" s="16">
-        <v>32129</v>
+        <v>32153.26953125</v>
       </c>
     </row>
     <row r="9">
@@ -867,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="15">
-        <v>15600.900390625</v>
+        <v>14428.5</v>
       </c>
       <c r="F9" s="16">
-        <v>31201.80078125</v>
+        <v>28857</v>
       </c>
     </row>
     <row r="10">

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -22,7 +22,7 @@
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 002 для Петропрофиль от 27.10.2023</t>
+    <t>КП № 002 для Петропрофиль от 29.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -60,7 +60,7 @@
   <si>
     <t xml:space="preserve">Покупка (Лист металла)
 Окраска (цвет - 9005 мат)
-Покупка (Швеллер)
+Покупка (Квадрат)
 Окраска (цвет - 9005 мат)
 </t>
   </si>
@@ -68,10 +68,13 @@
     <t>Боковина</t>
   </si>
   <si>
-    <t xml:space="preserve">Покупка (Квадрат)
+    <t xml:space="preserve">Покупка (Швеллер)
 Окраска (цвет - 9005 мат)
 Покупка (Лист металла)
-Резка
+Резка листа
+Сварка
+Покупка (Лист металла)
+Резка листа
 </t>
   </si>
   <si>
@@ -81,7 +84,7 @@
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>61010,27</t>
+    <t>391358400</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -412,7 +415,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
+    <xdr:ext cx="447675" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -435,7 +438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="571500" cy="571500"/>
+          <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,8 +760,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.00390625" customWidth="1"/>
-    <col min="6" max="6" width="10.57421875" customWidth="1"/>
+    <col min="5" max="6" width="12.57421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -847,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>32153.26953125</v>
+        <v>17515.939453125</v>
       </c>
       <c r="F8" s="16">
-        <v>32153.26953125</v>
+        <v>17515.939453125</v>
       </c>
     </row>
     <row r="9">
@@ -867,10 +869,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="15">
-        <v>14428.5</v>
+        <v>195670448</v>
       </c>
       <c r="F9" s="16">
-        <v>28857</v>
+        <v>391340896</v>
       </c>
     </row>
     <row r="10">

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$9</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 002 для Петропрофиль от 29.10.2023</t>
+    <t>КП № 0003 для ЖК Кудрово от 30.10.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -52,45 +52,58 @@
     <t>Цена, руб</t>
   </si>
   <si>
-    <t>Стоимость</t>
+    <t>Стоимость, руб</t>
   </si>
   <si>
     <t>Основание</t>
   </si>
   <si>
     <t xml:space="preserve">Покупка (Лист металла)
+Резка листа
 Окраска (цвет - 9005 мат)
-Покупка (Квадрат)
+Покупка (Швеллер типа П)
+Сварка
 Окраска (цвет - 9005 мат)
 </t>
   </si>
   <si>
-    <t>Боковина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер)
+    <t>Стена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Квадрат)
+Сварка
 Окраска (цвет - 9005 мат)
-Покупка (Лист металла)
-Резка листа
-Сварка
-Покупка (Лист металла)
-Резка листа
 </t>
   </si>
   <si>
+    <t>Крыша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка (Уголок неравнополочный)
+Окраска (цвет - 9005 мат)
+Гибка
+</t>
+  </si>
+  <si>
     <t>Стоимость изделия:</t>
   </si>
   <si>
+    <t>Материал:</t>
+  </si>
+  <si>
+    <t>Заказчика</t>
+  </si>
+  <si>
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>391358400</t>
+    <t>580969,56</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>17 раб/дней.</t>
+    <t>43 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -108,7 +121,7 @@
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Серых Михаил</t>
+    <t>Сергеев Алексей</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -269,7 +282,9 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -278,7 +293,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -287,9 +304,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -313,7 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -361,15 +376,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,10 +395,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
@@ -415,7 +433,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="447675" cy="447675"/>
+    <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -438,7 +456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="447675" cy="447675"/>
+          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,17 +768,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.421875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.8515625" customWidth="1"/>
+    <col min="3" max="3" width="16.57421875" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.57421875" customWidth="1"/>
+    <col min="5" max="5" width="10.00390625" customWidth="1"/>
+    <col min="6" max="6" width="14.8515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -849,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>17515.939453125</v>
+        <v>539627.9375</v>
       </c>
       <c r="F8" s="16">
-        <v>17515.939453125</v>
+        <v>539627.9375</v>
       </c>
     </row>
     <row r="9">
@@ -866,97 +885,119 @@
         <v>15</v>
       </c>
       <c r="D9" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="15">
-        <v>195670448</v>
+        <v>3910.669921875</v>
       </c>
       <c r="F9" s="16">
-        <v>391340896</v>
+        <v>15642.6796875</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20">
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>25698.919921875</v>
+      </c>
+      <c r="F10" s="16">
+        <v>25698.919921875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" ht="68.5" customHeight="true">
-      <c r="A14" s="21" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="26" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" ht="68.5" customHeight="true">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -971,10 +1012,10 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$10</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП № 0003 для ЖК Кудрово от 30.10.2023</t>
+    <t>КП №  для  от 06.11.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -31,7 +31,7 @@
     <t>Для изготовления изделия</t>
   </si>
   <si>
-    <t>Каркас здания</t>
+    <t/>
   </si>
   <si>
     <t>понадобятся следующие детали и работы:</t>
@@ -55,32 +55,7 @@
     <t>Стоимость, руб</t>
   </si>
   <si>
-    <t>Основание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Лист металла)
-Резка листа
-Окраска (цвет - 9005 мат)
-Покупка (Швеллер типа П)
-Сварка
-Окраска (цвет - 9005 мат)
-</t>
-  </si>
-  <si>
-    <t>Стена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Квадрат)
-Сварка
-Окраска (цвет - 9005 мат)
-</t>
-  </si>
-  <si>
-    <t>Крыша</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Уголок неравнополочный)
-Окраска (цвет - 9005 мат)
+    <t xml:space="preserve">Лазерная резка
 Гибка
 </t>
   </si>
@@ -97,13 +72,13 @@
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>580969,56</t>
+    <t>6575</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t>43 раб/дней.</t>
+    <t xml:space="preserve"> раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -119,9 +94,6 @@
   </si>
   <si>
     <t>Ваш менеджер:</t>
-  </si>
-  <si>
-    <t>Сергеев Алексей</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -433,7 +405,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
+    <xdr:ext cx="447675" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -456,7 +428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="571500" cy="571500"/>
+          <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,7 +740,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -776,7 +748,7 @@
   <cols>
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="18.8515625" customWidth="1"/>
-    <col min="3" max="3" width="16.57421875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.00390625" customWidth="1"/>
     <col min="6" max="6" width="14.8515625" customWidth="1"/>
@@ -858,146 +830,104 @@
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>539627.9375</v>
+        <v>6575</v>
       </c>
       <c r="F8" s="16">
-        <v>539627.9375</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3910.669921875</v>
-      </c>
-      <c r="F9" s="16">
-        <v>15642.6796875</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>25698.919921875</v>
-      </c>
-      <c r="F10" s="16">
-        <v>25698.919921875</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22"/>
+    </row>
     <row r="12">
+      <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" ht="68.5" customHeight="true">
       <c r="A13" s="22"/>
       <c r="B13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" ht="68.5" customHeight="true">
+      <c r="F14" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1012,10 +942,10 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Для изготовления изделия</t>
   </si>
   <si>
-    <t/>
+    <t>Изделие10</t>
   </si>
   <si>
     <t>понадобятся следующие детали и работы:</t>
@@ -53,10 +53,25 @@
   </si>
   <si>
     <t>Стоимость, руб</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Лазерная резка
 Гибка
+Лазерная резка
+Гибка
+Лазерная резка
+Гибка
+Лазерная резка
+Гибка
+Лазерная резка
+Гибка
+Лазерная резка
+Лазерная резка
+Лазерная резка
+Лазерная резка
 </t>
   </si>
   <si>
@@ -72,7 +87,7 @@
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>6575</t>
+    <t>1193969</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
@@ -94,6 +109,9 @@
   </si>
   <si>
     <t>Ваш менеджер:</t>
+  </si>
+  <si>
+    <t>Серых Михаил</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -748,9 +766,9 @@
   <cols>
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="18.8515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.00390625" customWidth="1"/>
+    <col min="5" max="5" width="10.57421875" customWidth="1"/>
     <col min="6" max="6" width="14.8515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,18 +848,20 @@
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>6575</v>
+        <v>1193969</v>
       </c>
       <c r="F8" s="16">
-        <v>6575</v>
+        <v>1193969</v>
       </c>
     </row>
     <row r="9">
@@ -849,7 +869,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="21">
@@ -859,25 +879,25 @@
     </row>
     <row r="10">
       <c r="B10" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22"/>
       <c r="B11" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -886,10 +906,10 @@
     <row r="12">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -898,10 +918,10 @@
     <row r="13" ht="68.5" customHeight="true">
       <c r="A13" s="22"/>
       <c r="B13" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -910,15 +930,15 @@
     <row r="14">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -83,7 +83,7 @@
     <t>ст3</t>
   </si>
   <si>
-    <t>Л + С + Г</t>
+    <t>Л + Г</t>
   </si>
   <si>
     <t>H14/h14 +-IT 14/2</t>
@@ -92,15 +92,15 @@
     <t>25 s6 n96</t>
   </si>
   <si>
+    <t>24 s6 n96</t>
+  </si>
+  <si>
+    <t>30 s6 n48</t>
+  </si>
+  <si>
     <t>Л</t>
   </si>
   <si>
-    <t>24 s6 n96</t>
-  </si>
-  <si>
-    <t>30 s6 n48</t>
-  </si>
-  <si>
     <t>23 s6 n96</t>
   </si>
   <si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">Расшифровка работ: </t>
   </si>
   <si>
-    <t xml:space="preserve">Л - Лазер Г - Гибка С - Сварка </t>
+    <t xml:space="preserve">Л - Лазер Г - Гибка </t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
@@ -521,10 +521,10 @@
         <v>96</v>
       </c>
       <c r="G8" s="19">
-        <v>430.6099853515625</v>
+        <v>106.1199951171875</v>
       </c>
       <c r="H8" s="19">
-        <v>41338.55859375</v>
+        <v>10187.51953125</v>
       </c>
       <c r="I8" s="4">
         <v>906.25</v>
@@ -541,22 +541,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4">
         <v>96</v>
       </c>
       <c r="G9" s="19">
-        <v>0.6100000143051147</v>
+        <v>151.0500030517578</v>
       </c>
       <c r="H9" s="19">
-        <v>58.560001373291016</v>
+        <v>14500.7998046875</v>
       </c>
       <c r="I9" s="4">
         <v>905.239990234375</v>
@@ -573,22 +573,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
         <v>48</v>
       </c>
       <c r="G10" s="19">
-        <v>0.6100000143051147</v>
+        <v>128.54000854492188</v>
       </c>
       <c r="H10" s="19">
-        <v>29.280000686645508</v>
+        <v>6169.919921875</v>
       </c>
       <c r="I10" s="4">
         <v>905.0400390625</v>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
@@ -617,10 +617,10 @@
         <v>96</v>
       </c>
       <c r="G11" s="19">
-        <v>0.5</v>
+        <v>49.7400016784668</v>
       </c>
       <c r="H11" s="19">
-        <v>48</v>
+        <v>4775.0400390625</v>
       </c>
       <c r="I11" s="4">
         <v>737.5900268554688</v>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -649,10 +649,10 @@
         <v>96</v>
       </c>
       <c r="G12" s="19">
-        <v>0.6299999952316284</v>
+        <v>63.38999938964844</v>
       </c>
       <c r="H12" s="19">
-        <v>60.47999954223633</v>
+        <v>6085.43994140625</v>
       </c>
       <c r="I12" s="4">
         <v>939.97998046875</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -681,10 +681,10 @@
         <v>240</v>
       </c>
       <c r="G13" s="19">
-        <v>0.49000000953674316</v>
+        <v>49.25</v>
       </c>
       <c r="H13" s="19">
-        <v>117.5999984741211</v>
+        <v>11820</v>
       </c>
       <c r="I13" s="4">
         <v>730.25</v>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>23</v>
@@ -713,10 +713,10 @@
         <v>48</v>
       </c>
       <c r="G14" s="19">
-        <v>0.5299999713897705</v>
+        <v>52.810001373291016</v>
       </c>
       <c r="H14" s="19">
-        <v>25.440000534057617</v>
+        <v>2534.8798828125</v>
       </c>
       <c r="I14" s="4">
         <v>782.97998046875</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
@@ -745,10 +745,10 @@
         <v>24</v>
       </c>
       <c r="G15" s="19">
-        <v>0.28999999165534973</v>
+        <v>29.15999984741211</v>
       </c>
       <c r="H15" s="19">
-        <v>6.960000038146973</v>
+        <v>699.8400268554688</v>
       </c>
       <c r="I15" s="4">
         <v>432.4300231933594</v>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -777,10 +777,10 @@
         <v>48</v>
       </c>
       <c r="G16" s="19">
-        <v>0.25999999046325684</v>
+        <v>25.690000534057617</v>
       </c>
       <c r="H16" s="19">
-        <v>12.479999542236328</v>
+        <v>1233.1199951171875</v>
       </c>
       <c r="I16" s="4">
         <v>380.8900146484375</v>
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>23</v>
@@ -809,10 +809,10 @@
         <v>48</v>
       </c>
       <c r="G17" s="20">
-        <v>0.25999999046325684</v>
+        <v>25.690000534057617</v>
       </c>
       <c r="H17" s="20">
-        <v>12.479999542236328</v>
+        <v>1233.1199951171875</v>
       </c>
       <c r="I17" s="8">
         <v>380.9700012207031</v>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -8,19 +8,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$H$7:$H$17</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$H$7:$H$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">ООО ЛАЗЕРФЛЕКС  тел:(812)509-60-11</t>
   </si>
   <si>
-    <t xml:space="preserve">КП №  для  от 12.11.2023</t>
+    <t xml:space="preserve">КП №  для  от 13.11.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -80,7 +80,7 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>ст3</t>
+    <t>aisi430</t>
   </si>
   <si>
     <t>Л + Г</t>
@@ -89,37 +89,46 @@
     <t>H14/h14 +-IT 14/2</t>
   </si>
   <si>
-    <t>25 s6 n96</t>
-  </si>
-  <si>
-    <t>24 s6 n96</t>
-  </si>
-  <si>
-    <t>30 s6 n48</t>
+    <t>098_143125 Стенка aisi430 s4 (гиб) n12</t>
+  </si>
+  <si>
+    <t>098_143125-01 Стенка aisi430 s4 (гиб) n12</t>
   </si>
   <si>
     <t>Л</t>
   </si>
   <si>
-    <t>23 s6 n96</t>
-  </si>
-  <si>
-    <t>26 s6 n96</t>
-  </si>
-  <si>
-    <t>22 s6 n240</t>
-  </si>
-  <si>
-    <t>28 s6 n48</t>
-  </si>
-  <si>
-    <t>34 s6 n24</t>
-  </si>
-  <si>
-    <t>32 s6 n48</t>
-  </si>
-  <si>
-    <t>31 s6 n48</t>
+    <t>098_143124 Стенка aisi430 s4 n8</t>
+  </si>
+  <si>
+    <t>098_145002 Кронштейн aisi430 s4 (гиб) n2</t>
+  </si>
+  <si>
+    <t>103_500562 Плита для LENZE aisi430 s4 n4</t>
+  </si>
+  <si>
+    <t>098_220603 Пластина aisi430 s4 n4</t>
+  </si>
+  <si>
+    <t>098_200904 Ребро aisi430 s4 n4</t>
+  </si>
+  <si>
+    <t>098_145025 Каркас aisi430 s4 (гиб) n24</t>
+  </si>
+  <si>
+    <t>098_160231 Кронштейн aisi430 s5 (гиб) n8</t>
+  </si>
+  <si>
+    <t>aisi430шлиф</t>
+  </si>
+  <si>
+    <t>098_105012 Пластина aisi430шлиф s5 n4</t>
+  </si>
+  <si>
+    <t>098_106005 Пластина aisi430шлиф s5 n4</t>
+  </si>
+  <si>
+    <t>098_105015 Проставка aisi430шлиф s5 n4</t>
   </si>
   <si>
     <t>ИТОГО:</t>
@@ -408,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +427,7 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.806575775146484" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="39.141109466552734" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="12.477986335754395" customWidth="1"/>
@@ -506,7 +515,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -518,19 +527,19 @@
         <v>24</v>
       </c>
       <c r="F8" s="4">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G8" s="19">
-        <v>106.1199951171875</v>
+        <v>192.5466766357422</v>
       </c>
       <c r="H8" s="19">
-        <v>10187.51953125</v>
+        <v>2310.56005859375</v>
       </c>
       <c r="I8" s="4">
-        <v>906.25</v>
+        <v>1241.5599365234375</v>
       </c>
       <c r="J8" s="14">
-        <v>2.374000072479248</v>
+        <v>1.36899995803833</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -550,19 +559,19 @@
         <v>25</v>
       </c>
       <c r="F9" s="4">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G9" s="19">
-        <v>151.0500030517578</v>
+        <v>192.5466766357422</v>
       </c>
       <c r="H9" s="19">
-        <v>14500.7998046875</v>
+        <v>2310.56005859375</v>
       </c>
       <c r="I9" s="4">
-        <v>905.239990234375</v>
+        <v>1241.5599365234375</v>
       </c>
       <c r="J9" s="14">
-        <v>2.366999864578247</v>
+        <v>1.36899995803833</v>
       </c>
     </row>
     <row r="10">
@@ -570,31 +579,31 @@
         <v>21</v>
       </c>
       <c r="B10" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G10" s="19">
-        <v>128.54000854492188</v>
+        <v>144.25</v>
       </c>
       <c r="H10" s="19">
-        <v>6169.919921875</v>
+        <v>1154</v>
       </c>
       <c r="I10" s="4">
-        <v>905.0400390625</v>
+        <v>1187.0400390625</v>
       </c>
       <c r="J10" s="14">
-        <v>2.365999937057495</v>
+        <v>0.7390000224113464</v>
       </c>
     </row>
     <row r="11">
@@ -602,10 +611,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
@@ -614,19 +623,19 @@
         <v>28</v>
       </c>
       <c r="F11" s="4">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="G11" s="19">
-        <v>49.7400016784668</v>
+        <v>356.0299987792969</v>
       </c>
       <c r="H11" s="19">
-        <v>4775.0400390625</v>
+        <v>712.0599975585938</v>
       </c>
       <c r="I11" s="4">
-        <v>737.5900268554688</v>
+        <v>872.530029296875</v>
       </c>
       <c r="J11" s="14">
-        <v>1.5789999961853027</v>
+        <v>0.2709999978542328</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>23</v>
@@ -646,19 +655,19 @@
         <v>29</v>
       </c>
       <c r="F12" s="4">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G12" s="19">
-        <v>63.38999938964844</v>
+        <v>106.02999877929688</v>
       </c>
       <c r="H12" s="19">
-        <v>6085.43994140625</v>
+        <v>424.1199951171875</v>
       </c>
       <c r="I12" s="4">
-        <v>939.97998046875</v>
+        <v>872.530029296875</v>
       </c>
       <c r="J12" s="14">
-        <v>2.4809999465942383</v>
+        <v>0.2709999978542328</v>
       </c>
     </row>
     <row r="13">
@@ -666,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -678,19 +687,19 @@
         <v>30</v>
       </c>
       <c r="F13" s="4">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="G13" s="19">
-        <v>49.25</v>
+        <v>136.17999267578125</v>
       </c>
       <c r="H13" s="19">
-        <v>11820</v>
+        <v>544.719970703125</v>
       </c>
       <c r="I13" s="4">
-        <v>730.25</v>
+        <v>1120.6500244140625</v>
       </c>
       <c r="J13" s="14">
-        <v>1.5809999704360962</v>
+        <v>0.2370000034570694</v>
       </c>
     </row>
     <row r="14">
@@ -698,10 +707,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>23</v>
@@ -710,19 +719,19 @@
         <v>31</v>
       </c>
       <c r="F14" s="4">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G14" s="19">
-        <v>52.810001373291016</v>
+        <v>62.880001068115234</v>
       </c>
       <c r="H14" s="19">
-        <v>2534.8798828125</v>
+        <v>251.52000427246094</v>
       </c>
       <c r="I14" s="4">
-        <v>782.97998046875</v>
+        <v>517.4099731445312</v>
       </c>
       <c r="J14" s="14">
-        <v>1.6319999694824219</v>
+        <v>0.08799999952316284</v>
       </c>
     </row>
     <row r="15">
@@ -730,10 +739,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
@@ -745,16 +754,16 @@
         <v>24</v>
       </c>
       <c r="G15" s="19">
-        <v>29.15999984741211</v>
+        <v>52.400001525878906</v>
       </c>
       <c r="H15" s="19">
-        <v>699.8400268554688</v>
+        <v>1257.5999755859375</v>
       </c>
       <c r="I15" s="4">
-        <v>432.4300231933594</v>
+        <v>184.36000061035156</v>
       </c>
       <c r="J15" s="14">
-        <v>0.5289999842643738</v>
+        <v>0.026000000536441803</v>
       </c>
     </row>
     <row r="16">
@@ -762,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
@@ -774,116 +783,180 @@
         <v>33</v>
       </c>
       <c r="F16" s="4">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G16" s="19">
-        <v>25.690000534057617</v>
+        <v>335</v>
       </c>
       <c r="H16" s="19">
-        <v>1233.1199951171875</v>
+        <v>2680</v>
       </c>
       <c r="I16" s="4">
-        <v>380.8900146484375</v>
+        <v>231.67999267578125</v>
       </c>
       <c r="J16" s="14">
-        <v>0.2629999816417694</v>
+        <v>0.06700000166893005</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="8">
-        <v>48</v>
-      </c>
-      <c r="G17" s="20">
-        <v>25.690000534057617</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1233.1199951171875</v>
-      </c>
-      <c r="I17" s="8">
-        <v>380.9700012207031</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0.2629999816417694</v>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="19">
+        <v>199.47000122070312</v>
+      </c>
+      <c r="H17" s="19">
+        <v>797.8800048828125</v>
+      </c>
+      <c r="I17" s="4">
+        <v>473.0799865722656</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.2549999952316284</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>163.5800018310547</v>
+      </c>
+      <c r="H18" s="19">
+        <v>654.3200073242188</v>
+      </c>
+      <c r="I18" s="4">
+        <v>387.9599914550781</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.1940000057220459</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="G19" s="20">
+        <v>94.44000244140625</v>
+      </c>
+      <c r="H19" s="20">
+        <v>377.760009765625</v>
+      </c>
+      <c r="I19" s="8">
+        <v>223.97999572753906</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.07699999958276749</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="22">
         <f>SUM(totalOrder)</f>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" ht="35" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="B22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="24" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="A24" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="16" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="B25" s="0" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -899,12 +972,12 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/Images/1.xlsx
+++ b/Images/1.xlsx
@@ -178,9 +178,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -202,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -212,6 +217,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="0078B4FF" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -298,39 +312,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyBorder="1" applyAlignment="1">
@@ -345,19 +359,22 @@
     <xf numFmtId="0" fontId="0" borderId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" borderId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" borderId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" borderId="11" applyBorder="1"/>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="12" applyBorder="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" borderId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" borderId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyAlignment="1">
@@ -441,491 +458,495 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="4" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>12</v>
       </c>
-      <c r="G8" s="19">
-        <v>192.5466766357422</v>
-      </c>
-      <c r="H8" s="19">
-        <v>2310.56005859375</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="20">
+        <v>697.1867065429688</v>
+      </c>
+      <c r="H8" s="20">
+        <v>8366.240234375</v>
+      </c>
+      <c r="I8" s="5">
         <v>1241.5599365234375</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <v>1.36899995803833</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>12</v>
       </c>
-      <c r="G9" s="19">
-        <v>192.5466766357422</v>
-      </c>
-      <c r="H9" s="19">
-        <v>2310.56005859375</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="20">
+        <v>697.1867065429688</v>
+      </c>
+      <c r="H9" s="20">
+        <v>8366.240234375</v>
+      </c>
+      <c r="I9" s="5">
         <v>1241.5599365234375</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <v>1.36899995803833</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>8</v>
       </c>
-      <c r="G10" s="19">
-        <v>144.25</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1154</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="20">
+        <v>416.6600036621094</v>
+      </c>
+      <c r="H10" s="20">
+        <v>3333.280029296875</v>
+      </c>
+      <c r="I10" s="5">
         <v>1187.0400390625</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="15">
         <v>0.7390000224113464</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="19">
-        <v>356.0299987792969</v>
-      </c>
-      <c r="H11" s="19">
-        <v>712.0599975585938</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11" s="20">
+        <v>455.92999267578125</v>
+      </c>
+      <c r="H11" s="20">
+        <v>911.8599853515625</v>
+      </c>
+      <c r="I11" s="5">
         <v>872.530029296875</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <v>0.2709999978542328</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19">
-        <v>106.02999877929688</v>
-      </c>
-      <c r="H12" s="19">
-        <v>424.1199951171875</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="20">
+        <v>205.92999267578125</v>
+      </c>
+      <c r="H12" s="20">
+        <v>823.719970703125</v>
+      </c>
+      <c r="I12" s="5">
         <v>872.530029296875</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="15">
         <v>0.2709999978542328</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="19">
-        <v>136.17999267578125</v>
-      </c>
-      <c r="H13" s="19">
-        <v>544.719970703125</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+      <c r="G13" s="20">
+        <v>223.5399932861328</v>
+      </c>
+      <c r="H13" s="20">
+        <v>894.1599731445312</v>
+      </c>
+      <c r="I13" s="5">
         <v>1120.6500244140625</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="15">
         <v>0.2370000034570694</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="19">
-        <v>62.880001068115234</v>
-      </c>
-      <c r="H14" s="19">
-        <v>251.52000427246094</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="20">
+        <v>95.31999969482422</v>
+      </c>
+      <c r="H14" s="20">
+        <v>381.2799987792969</v>
+      </c>
+      <c r="I14" s="5">
         <v>517.4099731445312</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="15">
         <v>0.08799999952316284</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>24</v>
       </c>
-      <c r="G15" s="19">
-        <v>52.400001525878906</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1257.5999755859375</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="20">
+        <v>61.980003356933594</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1487.52001953125</v>
+      </c>
+      <c r="I15" s="5">
         <v>184.36000061035156</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="15">
         <v>0.026000000536441803</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="G16" s="19">
-        <v>335</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2680</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="20">
+        <v>496.29998779296875</v>
+      </c>
+      <c r="H16" s="20">
+        <v>3970.39990234375</v>
+      </c>
+      <c r="I16" s="5">
         <v>231.67999267578125</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="15">
         <v>0.06700000166893005</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-      <c r="G17" s="19">
-        <v>199.47000122070312</v>
-      </c>
-      <c r="H17" s="19">
-        <v>797.8800048828125</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+      <c r="G17" s="20">
+        <v>357.33001708984375</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1429.3199462890625</v>
+      </c>
+      <c r="I17" s="5">
         <v>473.0799865722656</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="15">
         <v>0.2549999952316284</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="19">
-        <v>163.5800018310547</v>
-      </c>
-      <c r="H18" s="19">
-        <v>654.3200073242188</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20">
+        <v>283.67999267578125</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1134.719970703125</v>
+      </c>
+      <c r="I18" s="5">
         <v>387.9599914550781</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <v>0.1940000057220459</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="8">
-        <v>4</v>
-      </c>
-      <c r="G19" s="20">
-        <v>94.44000244140625</v>
-      </c>
-      <c r="H19" s="20">
-        <v>377.760009765625</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
+      <c r="G19" s="21">
+        <v>142.11000061035156</v>
+      </c>
+      <c r="H19" s="21">
+        <v>568.4400024414062</v>
+      </c>
+      <c r="I19" s="9">
         <v>223.97999572753906</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="16">
         <v>0.07699999958276749</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="21" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <f>SUM(totalOrder)</f>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -933,10 +954,10 @@
       </c>
     </row>
     <row r="24" ht="35" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -952,10 +973,10 @@
       <c r="A26" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -976,7 +997,7 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <headerFooter/>
